--- a/mo-200/DSA MO 200 5. Manage charts.xlsx
+++ b/mo-200/DSA MO 200 5. Manage charts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Analytics\MS Excel\MO 200\MO200 Learning Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelisha\Documents\GitHub\excel-projects\mo-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC07F17-5B27-4271-9E94-826C44534B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687B6BBB-7716-4445-9186-A4665AEFC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MO 200 Section 5 - Index" sheetId="2" r:id="rId1"/>
-    <sheet name="Charts" sheetId="3" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId2"/>
+    <sheet name="Charts" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MO 200 Section 5 - Index'!#REF!</definedName>
@@ -30,9 +31,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -524,16 +528,6 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -549,6 +543,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -580,6 +584,1142 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-PH" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Since 2020, TV has the highest marketing budget</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Social Media Marketing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Email Marketing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>News Paper</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Radio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F573-4922-9D37-8629EC0FAFD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Social Media Marketing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Email Marketing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>News Paper</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Radio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>55000.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27500.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F573-4922-9D37-8629EC0FAFD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Social Media Marketing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Email Marketing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>News Paper</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Radio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60500.000000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48400.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30250.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F573-4922-9D37-8629EC0FAFD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Social Media Marketing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Email Marketing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>News Paper</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Radio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>66550.000000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53240.000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33275.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93170.000000000015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F573-4922-9D37-8629EC0FAFD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="166254879"/>
+        <c:axId val="166255359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="166254879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166255359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166255359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166254879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9AAA1AB2-BAA2-4D39-99F2-74303FA2567D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -608,8 +1748,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="177404" y="3717051"/>
-          <a:ext cx="4639739" cy="735134"/>
+          <a:off x="177404" y="3696096"/>
+          <a:ext cx="4664504" cy="704654"/>
           <a:chOff x="177404" y="6460251"/>
           <a:chExt cx="4639739" cy="735134"/>
         </a:xfrm>
@@ -791,6 +1931,39 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8651875" cy="6278563"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" descr="The chart contains the marketing budget from 2020 to 2023">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B177C1B-5092-8ED4-1C64-621EF77A941D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1063,22 +2236,24 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="4"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1086,11 +2261,11 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>5</v>
       </c>
@@ -1114,7 +2289,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>5.0999999999999996</v>
       </c>
@@ -1129,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>25</v>
       </c>
@@ -1137,7 +2312,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>42</v>
@@ -1146,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
@@ -1154,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>48</v>
@@ -1163,7 +2338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>5.2</v>
       </c>
@@ -1178,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
@@ -1186,13 +2361,13 @@
         <v>18</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
@@ -1200,13 +2375,13 @@
         <v>19</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
@@ -1214,13 +2389,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>5.3</v>
       </c>
@@ -1232,7 +2407,7 @@
       </c>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>30</v>
       </c>
@@ -1240,13 +2415,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>31</v>
       </c>
@@ -1254,13 +2429,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>32</v>
       </c>
@@ -1268,28 +2443,28 @@
         <v>24</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>10</v>
       </c>
@@ -1297,21 +2472,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cI+4ejEeqDNZ36k7y8VUp9zYRpQR4YL2VOxWX1sbrUeI93Pg3VGeKbgX9J3c1jbsJIFaAQY0/37NhioKkdomIA==" saltValue="nzmKHn8T8btkQhkBo/7+Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B15">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C5:C15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Review Later"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Done but needs practice"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Done &amp; Understood"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B15">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C15" xr:uid="{96962207-EE2F-4BE2-8F92-206607751FDF}">
       <formula1>$G$5:$G$8</formula1>
     </dataValidation>
@@ -1333,26 +2508,26 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +2544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>36</v>
       </c>
@@ -1389,7 +2564,7 @@
         <v>66550.000000000015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -1409,7 +2584,7 @@
         <v>53240.000000000015</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
@@ -1429,7 +2604,7 @@
         <v>33275.000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
@@ -1449,7 +2624,7 @@
         <v>19965</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>40</v>
       </c>
@@ -1469,7 +2644,7 @@
         <v>93170.000000000015</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>41</v>
       </c>
@@ -1490,7 +2665,7 @@
         <v>266200.00000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
